--- a/Mifos Automation Excels/Client/966-MS-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-LateRepayment-Newcreateloan.xlsx
+++ b/Mifos Automation Excels/Client/966-MS-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-LateRepayment-Newcreateloan.xlsx
@@ -136,6 +136,9 @@
     <t>Late</t>
   </si>
   <si>
+    <t>966-MS-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-LateRepayment</t>
+  </si>
+  <si>
     <t>approveloan</t>
   </si>
   <si>
@@ -164,16 +167,13 @@
   </si>
   <si>
     <t>submitdisburse</t>
-  </si>
-  <si>
-    <t>966-MS-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-Late Repayment</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -185,11 +185,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -243,6 +238,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -260,7 +256,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -850,7 +845,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -861,7 +856,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -871,13 +866,13 @@
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>49</v>
+      <c r="B2" s="6" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B3" s="3">
         <v>42005</v>
@@ -892,10 +887,10 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="B5" s="11">
+      <c r="A5" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="12">
         <v>10000</v>
       </c>
     </row>
@@ -925,7 +920,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>13</v>
@@ -933,7 +928,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>4</v>
@@ -949,15 +944,15 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>7</v>
@@ -973,10 +968,10 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -990,7 +985,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1021,80 +1016,80 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="7">
+      <c r="A2" s="8">
         <v>10000</v>
       </c>
-      <c r="B2" s="8">
-        <v>0</v>
-      </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8">
-        <v>0</v>
-      </c>
-      <c r="E2" s="7">
+      <c r="B2" s="9">
+        <v>0</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9">
+        <v>0</v>
+      </c>
+      <c r="E2" s="8">
         <v>10000</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2" s="10">
         <v>1581.47</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="8">
-        <v>685.92</v>
-      </c>
-      <c r="B3" s="8">
-        <v>0</v>
-      </c>
-      <c r="C3" s="8">
-        <v>0</v>
-      </c>
-      <c r="D3" s="8">
-        <v>0</v>
-      </c>
-      <c r="E3" s="8">
-        <v>685.92</v>
-      </c>
-      <c r="F3" s="8">
+      <c r="A3" s="9">
+        <v>685.07</v>
+      </c>
+      <c r="B3" s="9">
+        <v>0</v>
+      </c>
+      <c r="C3" s="9">
+        <v>0</v>
+      </c>
+      <c r="D3" s="9">
+        <v>0</v>
+      </c>
+      <c r="E3" s="9">
+        <v>685.07</v>
+      </c>
+      <c r="F3" s="9">
         <v>193.97</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="8">
-        <v>0</v>
-      </c>
-      <c r="B4" s="8">
-        <v>0</v>
-      </c>
-      <c r="C4" s="8">
-        <v>0</v>
-      </c>
-      <c r="D4" s="8">
-        <v>0</v>
-      </c>
-      <c r="E4" s="8">
-        <v>0</v>
-      </c>
-      <c r="F4" s="8">
+      <c r="A4" s="9">
+        <v>0</v>
+      </c>
+      <c r="B4" s="9">
+        <v>0</v>
+      </c>
+      <c r="C4" s="9">
+        <v>0</v>
+      </c>
+      <c r="D4" s="9">
+        <v>0</v>
+      </c>
+      <c r="E4" s="9">
+        <v>0</v>
+      </c>
+      <c r="F4" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="8">
-        <v>0</v>
-      </c>
-      <c r="B5" s="8">
-        <v>0</v>
-      </c>
-      <c r="C5" s="8">
-        <v>0</v>
-      </c>
-      <c r="D5" s="8">
-        <v>0</v>
-      </c>
-      <c r="E5" s="8">
-        <v>0</v>
-      </c>
-      <c r="F5" s="8">
+      <c r="A5" s="9">
+        <v>0</v>
+      </c>
+      <c r="B5" s="9">
+        <v>0</v>
+      </c>
+      <c r="C5" s="9">
+        <v>0</v>
+      </c>
+      <c r="D5" s="9">
+        <v>0</v>
+      </c>
+      <c r="E5" s="9">
+        <v>0</v>
+      </c>
+      <c r="F5" s="9">
         <v>0</v>
       </c>
     </row>
@@ -1109,7 +1104,7 @@
   <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1159,552 +1154,548 @@
       <c r="N1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="O1" s="13"/>
+      <c r="O1" s="1"/>
       <c r="P1" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="10">
+      <c r="B2" s="9"/>
+      <c r="C2" s="11">
         <v>42005</v>
       </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="7">
+      <c r="D2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="8">
         <v>10000</v>
       </c>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8">
-        <v>0</v>
-      </c>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8">
-        <v>0</v>
-      </c>
-      <c r="L2" s="8">
-        <v>0</v>
-      </c>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9">
+        <v>0</v>
+      </c>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9">
+        <v>0</v>
+      </c>
+      <c r="L2" s="9">
+        <v>0</v>
+      </c>
+      <c r="M2" s="9"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A3" s="8">
+      <c r="A3" s="9">
         <v>1</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="9">
         <v>31</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="11">
         <v>42036</v>
       </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8">
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9">
         <v>785.8</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="10">
         <v>9214.2000000000007</v>
       </c>
-      <c r="H3" s="8">
+      <c r="H3" s="9">
         <v>101.92</v>
       </c>
-      <c r="I3" s="8">
-        <v>0</v>
-      </c>
-      <c r="J3" s="8">
-        <v>0</v>
-      </c>
-      <c r="K3" s="8">
-        <v>887.72</v>
-      </c>
-      <c r="L3" s="8">
-        <v>0</v>
-      </c>
-      <c r="M3" s="8">
-        <v>0</v>
-      </c>
-      <c r="N3" s="8">
-        <v>0</v>
-      </c>
-      <c r="P3" s="8">
+      <c r="I3" s="9">
+        <v>0</v>
+      </c>
+      <c r="J3" s="9">
+        <v>0</v>
+      </c>
+      <c r="K3" s="9">
+        <v>887.72</v>
+      </c>
+      <c r="L3" s="9">
+        <v>0</v>
+      </c>
+      <c r="M3" s="9">
+        <v>0</v>
+      </c>
+      <c r="N3" s="9">
+        <v>0</v>
+      </c>
+      <c r="P3" s="9">
         <v>887.72</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A4" s="8">
+      <c r="A4" s="9">
         <v>2</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="9">
         <v>28</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="11">
         <v>42064</v>
       </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8">
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9">
         <v>795.67</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="10">
         <v>8418.5300000000007</v>
       </c>
-      <c r="H4" s="8">
+      <c r="H4" s="9">
         <v>92.05</v>
       </c>
-      <c r="I4" s="8">
-        <v>0</v>
-      </c>
-      <c r="J4" s="8">
-        <v>0</v>
-      </c>
-      <c r="K4" s="8">
-        <v>887.72</v>
-      </c>
-      <c r="L4" s="8">
-        <v>0</v>
-      </c>
-      <c r="M4" s="8">
-        <v>0</v>
-      </c>
-      <c r="N4" s="8">
-        <v>0</v>
-      </c>
-      <c r="P4" s="8">
+      <c r="I4" s="9">
+        <v>0</v>
+      </c>
+      <c r="J4" s="9">
+        <v>0</v>
+      </c>
+      <c r="K4" s="9">
+        <v>887.72</v>
+      </c>
+      <c r="L4" s="9">
+        <v>0</v>
+      </c>
+      <c r="M4" s="9">
+        <v>0</v>
+      </c>
+      <c r="N4" s="9">
+        <v>0</v>
+      </c>
+      <c r="P4" s="9">
         <v>887.72</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A5" s="8">
+      <c r="A5" s="9">
         <v>3</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="9">
         <v>31</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="11">
         <v>42095</v>
       </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8">
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9">
         <v>785.8</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="10">
         <v>7632.73</v>
       </c>
-      <c r="H5" s="8">
+      <c r="H5" s="9">
         <v>101.92</v>
       </c>
-      <c r="I5" s="8">
-        <v>0</v>
-      </c>
-      <c r="J5" s="8">
-        <v>0</v>
-      </c>
-      <c r="K5" s="8">
-        <v>887.72</v>
-      </c>
-      <c r="L5" s="8">
-        <v>0</v>
-      </c>
-      <c r="M5" s="8">
-        <v>0</v>
-      </c>
-      <c r="N5" s="8">
-        <v>0</v>
-      </c>
-      <c r="P5" s="8">
+      <c r="I5" s="9">
+        <v>0</v>
+      </c>
+      <c r="J5" s="9">
+        <v>0</v>
+      </c>
+      <c r="K5" s="9">
+        <v>887.72</v>
+      </c>
+      <c r="L5" s="9">
+        <v>0</v>
+      </c>
+      <c r="M5" s="9">
+        <v>0</v>
+      </c>
+      <c r="N5" s="9">
+        <v>0</v>
+      </c>
+      <c r="P5" s="9">
         <v>887.72</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A6" s="8">
+      <c r="A6" s="9">
         <v>4</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="9">
         <v>30</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="11">
         <v>42125</v>
       </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8">
-        <v>811.66</v>
-      </c>
-      <c r="G6" s="9">
-        <v>6821.07</v>
-      </c>
-      <c r="H6" s="8">
-        <v>76.06</v>
-      </c>
-      <c r="I6" s="8">
-        <v>0</v>
-      </c>
-      <c r="J6" s="8">
-        <v>0</v>
-      </c>
-      <c r="K6" s="8">
-        <v>887.72</v>
-      </c>
-      <c r="L6" s="8">
-        <v>0</v>
-      </c>
-      <c r="M6" s="8">
-        <v>0</v>
-      </c>
-      <c r="N6" s="8">
-        <v>0</v>
-      </c>
-      <c r="P6" s="8">
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9">
+        <v>812.44</v>
+      </c>
+      <c r="G6" s="10">
+        <v>6820.29</v>
+      </c>
+      <c r="H6" s="9">
+        <v>75.28</v>
+      </c>
+      <c r="I6" s="9">
+        <v>0</v>
+      </c>
+      <c r="J6" s="9">
+        <v>0</v>
+      </c>
+      <c r="K6" s="9">
+        <v>887.72</v>
+      </c>
+      <c r="L6" s="9">
+        <v>0</v>
+      </c>
+      <c r="M6" s="9">
+        <v>0</v>
+      </c>
+      <c r="N6" s="9">
+        <v>0</v>
+      </c>
+      <c r="P6" s="9">
         <v>887.72</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A7" s="8">
+      <c r="A7" s="9">
         <v>5</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="9">
         <v>31</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="11">
         <v>42156</v>
       </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8">
-        <v>818.2</v>
-      </c>
-      <c r="G7" s="9">
-        <v>6002.87</v>
-      </c>
-      <c r="H7" s="8">
-        <v>69.52</v>
-      </c>
-      <c r="I7" s="8">
-        <v>0</v>
-      </c>
-      <c r="J7" s="8">
-        <v>0</v>
-      </c>
-      <c r="K7" s="8">
-        <v>887.72</v>
-      </c>
-      <c r="L7" s="8">
-        <v>0</v>
-      </c>
-      <c r="M7" s="8">
-        <v>0</v>
-      </c>
-      <c r="N7" s="8">
-        <v>0</v>
-      </c>
-      <c r="P7" s="8">
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9">
+        <v>818.21</v>
+      </c>
+      <c r="G7" s="10">
+        <v>6002.08</v>
+      </c>
+      <c r="H7" s="9">
+        <v>69.510000000000005</v>
+      </c>
+      <c r="I7" s="9">
+        <v>0</v>
+      </c>
+      <c r="J7" s="9">
+        <v>0</v>
+      </c>
+      <c r="K7" s="9">
+        <v>887.72</v>
+      </c>
+      <c r="L7" s="9">
+        <v>0</v>
+      </c>
+      <c r="M7" s="9">
+        <v>0</v>
+      </c>
+      <c r="N7" s="9">
+        <v>0</v>
+      </c>
+      <c r="P7" s="9">
         <v>887.72</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A8" s="8">
+      <c r="A8" s="9">
         <v>6</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="9">
         <v>30</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="11">
         <v>42186</v>
       </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8">
-        <v>828.51</v>
-      </c>
-      <c r="G8" s="9">
-        <v>5174.3599999999997</v>
-      </c>
-      <c r="H8" s="8">
-        <v>59.21</v>
-      </c>
-      <c r="I8" s="8">
-        <v>0</v>
-      </c>
-      <c r="J8" s="8">
-        <v>0</v>
-      </c>
-      <c r="K8" s="8">
-        <v>887.72</v>
-      </c>
-      <c r="L8" s="8">
-        <v>0</v>
-      </c>
-      <c r="M8" s="8">
-        <v>0</v>
-      </c>
-      <c r="N8" s="8">
-        <v>0</v>
-      </c>
-      <c r="P8" s="8">
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9">
+        <v>828.52</v>
+      </c>
+      <c r="G8" s="10">
+        <v>5173.5600000000004</v>
+      </c>
+      <c r="H8" s="9">
+        <v>59.2</v>
+      </c>
+      <c r="I8" s="9">
+        <v>0</v>
+      </c>
+      <c r="J8" s="9">
+        <v>0</v>
+      </c>
+      <c r="K8" s="9">
+        <v>887.72</v>
+      </c>
+      <c r="L8" s="9">
+        <v>0</v>
+      </c>
+      <c r="M8" s="9">
+        <v>0</v>
+      </c>
+      <c r="N8" s="9">
+        <v>0</v>
+      </c>
+      <c r="P8" s="9">
         <v>887.72</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A9" s="8">
+      <c r="A9" s="9">
         <v>7</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="9">
         <v>31</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="11">
         <v>42217</v>
       </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8">
-        <v>834.98</v>
-      </c>
-      <c r="G9" s="9">
-        <v>4339.38</v>
-      </c>
-      <c r="H9" s="8">
-        <v>52.74</v>
-      </c>
-      <c r="I9" s="8">
-        <v>0</v>
-      </c>
-      <c r="J9" s="8">
-        <v>0</v>
-      </c>
-      <c r="K9" s="8">
-        <v>887.72</v>
-      </c>
-      <c r="L9" s="8">
-        <v>0</v>
-      </c>
-      <c r="M9" s="8">
-        <v>0</v>
-      </c>
-      <c r="N9" s="8">
-        <v>0</v>
-      </c>
-      <c r="P9" s="8">
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9">
+        <v>834.99</v>
+      </c>
+      <c r="G9" s="10">
+        <v>4338.57</v>
+      </c>
+      <c r="H9" s="9">
+        <v>52.73</v>
+      </c>
+      <c r="I9" s="9">
+        <v>0</v>
+      </c>
+      <c r="J9" s="9">
+        <v>0</v>
+      </c>
+      <c r="K9" s="9">
+        <v>887.72</v>
+      </c>
+      <c r="L9" s="9">
+        <v>0</v>
+      </c>
+      <c r="M9" s="9">
+        <v>0</v>
+      </c>
+      <c r="N9" s="9">
+        <v>0</v>
+      </c>
+      <c r="P9" s="9">
         <v>887.72</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A10" s="8">
+      <c r="A10" s="9">
         <v>8</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="9">
         <v>31</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="11">
         <v>42248</v>
       </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8">
-        <v>843.49</v>
-      </c>
-      <c r="G10" s="9">
-        <v>3495.89</v>
-      </c>
-      <c r="H10" s="8">
-        <v>44.23</v>
-      </c>
-      <c r="I10" s="8">
-        <v>0</v>
-      </c>
-      <c r="J10" s="8">
-        <v>0</v>
-      </c>
-      <c r="K10" s="8">
-        <v>887.72</v>
-      </c>
-      <c r="L10" s="8">
-        <v>0</v>
-      </c>
-      <c r="M10" s="8">
-        <v>0</v>
-      </c>
-      <c r="N10" s="8">
-        <v>0</v>
-      </c>
-      <c r="P10" s="8">
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9">
+        <v>843.5</v>
+      </c>
+      <c r="G10" s="10">
+        <v>3495.07</v>
+      </c>
+      <c r="H10" s="9">
+        <v>44.22</v>
+      </c>
+      <c r="I10" s="9">
+        <v>0</v>
+      </c>
+      <c r="J10" s="9">
+        <v>0</v>
+      </c>
+      <c r="K10" s="9">
+        <v>887.72</v>
+      </c>
+      <c r="L10" s="9">
+        <v>0</v>
+      </c>
+      <c r="M10" s="9">
+        <v>0</v>
+      </c>
+      <c r="N10" s="9">
+        <v>0</v>
+      </c>
+      <c r="P10" s="9">
         <v>887.72</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A11" s="8">
+      <c r="A11" s="9">
         <v>9</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11" s="9">
         <v>30</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="11">
         <v>42278</v>
       </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8">
-        <v>853.24</v>
-      </c>
-      <c r="G11" s="9">
-        <v>2642.65</v>
-      </c>
-      <c r="H11" s="8">
-        <v>34.479999999999997</v>
-      </c>
-      <c r="I11" s="8">
-        <v>0</v>
-      </c>
-      <c r="J11" s="8">
-        <v>0</v>
-      </c>
-      <c r="K11" s="8">
-        <v>887.72</v>
-      </c>
-      <c r="L11" s="8">
-        <v>0</v>
-      </c>
-      <c r="M11" s="8">
-        <v>0</v>
-      </c>
-      <c r="N11" s="8">
-        <v>0</v>
-      </c>
-      <c r="P11" s="8">
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9">
+        <v>853.25</v>
+      </c>
+      <c r="G11" s="10">
+        <v>2641.82</v>
+      </c>
+      <c r="H11" s="9">
+        <v>34.47</v>
+      </c>
+      <c r="I11" s="9">
+        <v>0</v>
+      </c>
+      <c r="J11" s="9">
+        <v>0</v>
+      </c>
+      <c r="K11" s="9">
+        <v>887.72</v>
+      </c>
+      <c r="L11" s="9">
+        <v>0</v>
+      </c>
+      <c r="M11" s="9">
+        <v>0</v>
+      </c>
+      <c r="N11" s="9">
+        <v>0</v>
+      </c>
+      <c r="P11" s="9">
         <v>887.72</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A12" s="8">
+      <c r="A12" s="9">
         <v>10</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12" s="9">
         <v>31</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="11">
         <v>42309</v>
       </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8">
-        <v>860.79</v>
-      </c>
-      <c r="G12" s="9">
-        <v>1781.86</v>
-      </c>
-      <c r="H12" s="8">
-        <v>26.93</v>
-      </c>
-      <c r="I12" s="8">
-        <v>0</v>
-      </c>
-      <c r="J12" s="8">
-        <v>0</v>
-      </c>
-      <c r="K12" s="8">
-        <v>887.72</v>
-      </c>
-      <c r="L12" s="8">
-        <v>0</v>
-      </c>
-      <c r="M12" s="8">
-        <v>0</v>
-      </c>
-      <c r="N12" s="8">
-        <v>0</v>
-      </c>
-      <c r="P12" s="8">
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9">
+        <v>860.8</v>
+      </c>
+      <c r="G12" s="10">
+        <v>1781.02</v>
+      </c>
+      <c r="H12" s="9">
+        <v>26.92</v>
+      </c>
+      <c r="I12" s="9">
+        <v>0</v>
+      </c>
+      <c r="J12" s="9">
+        <v>0</v>
+      </c>
+      <c r="K12" s="9">
+        <v>887.72</v>
+      </c>
+      <c r="L12" s="9">
+        <v>0</v>
+      </c>
+      <c r="M12" s="9">
+        <v>0</v>
+      </c>
+      <c r="N12" s="9">
+        <v>0</v>
+      </c>
+      <c r="P12" s="9">
         <v>887.72</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A13" s="8">
+      <c r="A13" s="9">
         <v>11</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B13" s="9">
         <v>30</v>
       </c>
-      <c r="C13" s="10">
+      <c r="C13" s="11">
         <v>42339</v>
       </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8">
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9">
         <v>870.15</v>
       </c>
-      <c r="G13" s="8">
-        <v>911.71</v>
-      </c>
-      <c r="H13" s="8">
+      <c r="G13" s="9">
+        <v>910.87</v>
+      </c>
+      <c r="H13" s="9">
         <v>17.57</v>
       </c>
-      <c r="I13" s="8">
-        <v>0</v>
-      </c>
-      <c r="J13" s="8">
-        <v>0</v>
-      </c>
-      <c r="K13" s="8">
-        <v>887.72</v>
-      </c>
-      <c r="L13" s="8">
-        <v>0</v>
-      </c>
-      <c r="M13" s="8">
-        <v>0</v>
-      </c>
-      <c r="N13" s="8">
-        <v>0</v>
-      </c>
-      <c r="P13" s="8">
+      <c r="I13" s="9">
+        <v>0</v>
+      </c>
+      <c r="J13" s="9">
+        <v>0</v>
+      </c>
+      <c r="K13" s="9">
+        <v>887.72</v>
+      </c>
+      <c r="L13" s="9">
+        <v>0</v>
+      </c>
+      <c r="M13" s="9">
+        <v>0</v>
+      </c>
+      <c r="N13" s="9">
+        <v>0</v>
+      </c>
+      <c r="P13" s="9">
         <v>887.72</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A14" s="8">
+      <c r="A14" s="9">
         <v>12</v>
       </c>
-      <c r="B14" s="8">
+      <c r="B14" s="9">
         <v>31</v>
       </c>
-      <c r="C14" s="10">
+      <c r="C14" s="11">
         <v>42370</v>
       </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8">
-        <v>911.71</v>
-      </c>
-      <c r="G14" s="8">
-        <v>0</v>
-      </c>
-      <c r="H14" s="8">
-        <v>9.2899999999999991</v>
-      </c>
-      <c r="I14" s="8">
-        <v>0</v>
-      </c>
-      <c r="J14" s="8">
-        <v>0</v>
-      </c>
-      <c r="K14" s="8">
-        <v>921</v>
-      </c>
-      <c r="L14" s="8">
-        <v>0</v>
-      </c>
-      <c r="M14" s="8">
-        <v>0</v>
-      </c>
-      <c r="N14" s="8">
-        <v>0</v>
-      </c>
-      <c r="P14" s="8">
-        <v>921</v>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9">
+        <v>910.87</v>
+      </c>
+      <c r="G14" s="9">
+        <v>0</v>
+      </c>
+      <c r="H14" s="9">
+        <v>9.2799999999999994</v>
+      </c>
+      <c r="I14" s="9">
+        <v>0</v>
+      </c>
+      <c r="J14" s="9">
+        <v>0</v>
+      </c>
+      <c r="K14" s="9">
+        <v>920.15</v>
+      </c>
+      <c r="L14" s="9">
+        <v>0</v>
+      </c>
+      <c r="M14" s="9">
+        <v>0</v>
+      </c>
+      <c r="N14" s="9">
+        <v>0</v>
+      </c>
+      <c r="P14" s="9">
+        <v>920.15</v>
       </c>
     </row>
   </sheetData>
@@ -1857,7 +1848,7 @@
       <c r="A17" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="7">
         <v>12</v>
       </c>
     </row>

--- a/Mifos Automation Excels/Client/966-MS-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-LateRepayment-Newcreateloan.xlsx
+++ b/Mifos Automation Excels/Client/966-MS-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-LateRepayment-Newcreateloan.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="50">
   <si>
     <t>click</t>
   </si>
@@ -31,9 +31,6 @@
     <t>disbursementon</t>
   </si>
   <si>
-    <t>submittedon</t>
-  </si>
-  <si>
     <t>approve</t>
   </si>
   <si>
@@ -67,9 +64,6 @@
     <t>Tranche Loan</t>
   </si>
   <si>
-    <t>submitbutton</t>
-  </si>
-  <si>
     <t>loantrancheclick</t>
   </si>
   <si>
@@ -143,6 +137,36 @@
   </si>
   <si>
     <t>966-MS-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-LateRepayment</t>
+  </si>
+  <si>
+    <t>approveloan</t>
+  </si>
+  <si>
+    <t>disburseloan</t>
+  </si>
+  <si>
+    <t>clickonnewloan</t>
+  </si>
+  <si>
+    <t>submitteddateon</t>
+  </si>
+  <si>
+    <t>maximumallowedoutstandingbalance</t>
+  </si>
+  <si>
+    <t>submitloan</t>
+  </si>
+  <si>
+    <t>clickonapprove</t>
+  </si>
+  <si>
+    <t>submitapprove</t>
+  </si>
+  <si>
+    <t>clickondisburse</t>
+  </si>
+  <si>
+    <t>submitdisburse</t>
   </si>
 </sst>
 </file>
@@ -225,7 +249,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -260,6 +284,10 @@
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -846,10 +874,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection sqref="A1:A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -860,7 +888,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -871,12 +899,12 @@
         <v>2</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="B3" s="3">
         <v>42005</v>
@@ -891,24 +919,24 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="2">
-        <v>1</v>
+      <c r="A5" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="16">
+        <v>10000</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" s="3">
         <v>42005</v>
@@ -916,7 +944,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8" s="2">
         <v>10000</v>
@@ -924,23 +952,23 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B11" s="3">
         <v>42005</v>
@@ -948,18 +976,34 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>8</v>
+        <v>47</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="3">
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="3">
         <v>42005</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -985,22 +1029,22 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>26</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -1102,10 +1146,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O14"/>
+  <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1114,52 +1158,53 @@
     <col min="15" max="15" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="L1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O1" s="1"/>
+      <c r="P1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B2" s="13"/>
       <c r="C2" s="15">
         <v>42005</v>
@@ -1182,7 +1227,7 @@
       </c>
       <c r="M2" s="13"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="13">
         <v>1</v>
       </c>
@@ -1221,11 +1266,11 @@
       <c r="N3" s="13">
         <v>0</v>
       </c>
-      <c r="O3" s="13">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P3" s="13">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="13">
         <v>2</v>
       </c>
@@ -1264,11 +1309,11 @@
       <c r="N4" s="13">
         <v>0</v>
       </c>
-      <c r="O4" s="13">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P4" s="13">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="13">
         <v>3</v>
       </c>
@@ -1307,11 +1352,11 @@
       <c r="N5" s="13">
         <v>0</v>
       </c>
-      <c r="O5" s="13">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P5" s="13">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="13">
         <v>4</v>
       </c>
@@ -1350,11 +1395,11 @@
       <c r="N6" s="13">
         <v>0</v>
       </c>
-      <c r="O6" s="13">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P6" s="13">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="13">
         <v>5</v>
       </c>
@@ -1393,11 +1438,11 @@
       <c r="N7" s="13">
         <v>0</v>
       </c>
-      <c r="O7" s="13">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="13">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="13">
         <v>6</v>
       </c>
@@ -1436,11 +1481,11 @@
       <c r="N8" s="13">
         <v>0</v>
       </c>
-      <c r="O8" s="13">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="13">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="13">
         <v>7</v>
       </c>
@@ -1479,11 +1524,11 @@
       <c r="N9" s="13">
         <v>0</v>
       </c>
-      <c r="O9" s="13">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="13">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="13">
         <v>8</v>
       </c>
@@ -1522,11 +1567,11 @@
       <c r="N10" s="13">
         <v>0</v>
       </c>
-      <c r="O10" s="13">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="13">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="13">
         <v>9</v>
       </c>
@@ -1565,11 +1610,11 @@
       <c r="N11" s="13">
         <v>0</v>
       </c>
-      <c r="O11" s="13">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="13">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="13">
         <v>10</v>
       </c>
@@ -1608,11 +1653,11 @@
       <c r="N12" s="13">
         <v>0</v>
       </c>
-      <c r="O12" s="13">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="13">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="13">
         <v>11</v>
       </c>
@@ -1651,11 +1696,11 @@
       <c r="N13" s="13">
         <v>0</v>
       </c>
-      <c r="O13" s="13">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="13">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="13">
         <v>12</v>
       </c>
@@ -1694,7 +1739,7 @@
       <c r="N14" s="13">
         <v>0</v>
       </c>
-      <c r="O14" s="13">
+      <c r="P14" s="13">
         <v>920.15</v>
       </c>
     </row>
@@ -1724,20 +1769,20 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" s="3">
         <v>41974</v>
@@ -1745,7 +1790,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" s="2">
         <v>1000</v>
@@ -1753,15 +1798,15 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" s="3">
         <v>41974</v>
@@ -1769,7 +1814,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" s="2">
         <v>1000</v>
@@ -1777,15 +1822,15 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9" s="3">
         <v>41974</v>
@@ -1793,7 +1838,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10" s="2">
         <v>1000</v>
@@ -1804,12 +1849,12 @@
         <v>0</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B12" s="3">
         <v>41974</v>
@@ -1817,12 +1862,12 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B14" s="2">
         <v>1000</v>
@@ -1830,7 +1875,7 @@
     </row>
     <row r="15" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B15" s="2">
         <v>1000</v>
@@ -1838,7 +1883,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B16" s="2">
         <v>1</v>
@@ -1846,7 +1891,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B17" s="7">
         <v>12</v>
@@ -1854,7 +1899,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B20" s="2">
         <v>1</v>
@@ -1862,15 +1907,15 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B22" s="3">
         <v>42095</v>
@@ -1878,7 +1923,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B23" s="2">
         <v>10000</v>

--- a/Mifos Automation Excels/Client/966-MS-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-LateRepayment-Newcreateloan.xlsx
+++ b/Mifos Automation Excels/Client/966-MS-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-LateRepayment-Newcreateloan.xlsx
@@ -136,9 +136,6 @@
     <t>Late</t>
   </si>
   <si>
-    <t>966-MS-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-LateRepayment</t>
-  </si>
-  <si>
     <t>approveloan</t>
   </si>
   <si>
@@ -167,6 +164,9 @@
   </si>
   <si>
     <t>submitdisburse</t>
+  </si>
+  <si>
+    <t>966-MS-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-Late Repayment</t>
   </si>
 </sst>
 </file>
@@ -189,14 +189,12 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF555555"/>
-      <name val="Calibri"/>
+      <sz val="9"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -221,14 +219,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -236,20 +228,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color rgb="FFDDDDDD"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -260,18 +243,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -288,6 +260,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -877,7 +850,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A15"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -888,7 +861,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -898,13 +871,13 @@
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>39</v>
+      <c r="B2" s="2" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B3" s="3">
         <v>42005</v>
@@ -919,10 +892,10 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="B5" s="16">
+      <c r="A5" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="11">
         <v>10000</v>
       </c>
     </row>
@@ -952,7 +925,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>13</v>
@@ -960,7 +933,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>4</v>
@@ -976,15 +949,15 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>7</v>
@@ -1000,10 +973,10 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1014,10 +987,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1027,7 +1000,7 @@
     <col min="5" max="6" width="8.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>21</v>
       </c>
@@ -1047,96 +1020,83 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="12">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="7">
         <v>10000</v>
       </c>
-      <c r="B2" s="13">
-        <v>0</v>
-      </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13">
-        <v>0</v>
-      </c>
-      <c r="E2" s="12">
+      <c r="B2" s="8">
+        <v>0</v>
+      </c>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8">
+        <v>0</v>
+      </c>
+      <c r="E2" s="7">
         <v>10000</v>
       </c>
-      <c r="F2" s="14">
+      <c r="F2" s="9">
         <v>1581.47</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="13">
-        <v>685.07</v>
-      </c>
-      <c r="B3" s="13">
-        <v>0</v>
-      </c>
-      <c r="C3" s="13">
-        <v>0</v>
-      </c>
-      <c r="D3" s="13">
-        <v>0</v>
-      </c>
-      <c r="E3" s="13">
-        <v>685.07</v>
-      </c>
-      <c r="F3" s="13">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="8">
+        <v>685.92</v>
+      </c>
+      <c r="B3" s="8">
+        <v>0</v>
+      </c>
+      <c r="C3" s="8">
+        <v>0</v>
+      </c>
+      <c r="D3" s="8">
+        <v>0</v>
+      </c>
+      <c r="E3" s="8">
+        <v>685.92</v>
+      </c>
+      <c r="F3" s="8">
         <v>193.97</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="13">
-        <v>0</v>
-      </c>
-      <c r="B4" s="13">
-        <v>0</v>
-      </c>
-      <c r="C4" s="13">
-        <v>0</v>
-      </c>
-      <c r="D4" s="13">
-        <v>0</v>
-      </c>
-      <c r="E4" s="13">
-        <v>0</v>
-      </c>
-      <c r="F4" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="13">
-        <v>0</v>
-      </c>
-      <c r="B5" s="13">
-        <v>0</v>
-      </c>
-      <c r="C5" s="13">
-        <v>0</v>
-      </c>
-      <c r="D5" s="13">
-        <v>0</v>
-      </c>
-      <c r="E5" s="13">
-        <v>0</v>
-      </c>
-      <c r="F5" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G7" s="8"/>
-    </row>
-    <row r="11" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A12" s="9"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="8">
+        <v>0</v>
+      </c>
+      <c r="B4" s="8">
+        <v>0</v>
+      </c>
+      <c r="C4" s="8">
+        <v>0</v>
+      </c>
+      <c r="D4" s="8">
+        <v>0</v>
+      </c>
+      <c r="E4" s="8">
+        <v>0</v>
+      </c>
+      <c r="F4" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="8">
+        <v>0</v>
+      </c>
+      <c r="B5" s="8">
+        <v>0</v>
+      </c>
+      <c r="C5" s="8">
+        <v>0</v>
+      </c>
+      <c r="D5" s="8">
+        <v>0</v>
+      </c>
+      <c r="E5" s="8">
+        <v>0</v>
+      </c>
+      <c r="F5" s="8">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1149,7 +1109,7 @@
   <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1199,548 +1159,552 @@
       <c r="N1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="O1" s="1"/>
+      <c r="O1" s="13"/>
       <c r="P1" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B2" s="13"/>
-      <c r="C2" s="15">
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="10">
         <v>42005</v>
       </c>
-      <c r="D2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="12">
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="7">
         <v>10000</v>
       </c>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13">
-        <v>0</v>
-      </c>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13">
-        <v>0</v>
-      </c>
-      <c r="L2" s="13">
-        <v>0</v>
-      </c>
-      <c r="M2" s="13"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8">
+        <v>0</v>
+      </c>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8">
+        <v>0</v>
+      </c>
+      <c r="L2" s="8">
+        <v>0</v>
+      </c>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A3" s="13">
+      <c r="A3" s="8">
         <v>1</v>
       </c>
-      <c r="B3" s="13">
+      <c r="B3" s="8">
         <v>31</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="10">
         <v>42036</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13">
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8">
         <v>785.8</v>
       </c>
-      <c r="G3" s="14">
+      <c r="G3" s="9">
         <v>9214.2000000000007</v>
       </c>
-      <c r="H3" s="13">
+      <c r="H3" s="8">
         <v>101.92</v>
       </c>
-      <c r="I3" s="13">
-        <v>0</v>
-      </c>
-      <c r="J3" s="13">
-        <v>0</v>
-      </c>
-      <c r="K3" s="13">
-        <v>887.72</v>
-      </c>
-      <c r="L3" s="13">
-        <v>0</v>
-      </c>
-      <c r="M3" s="13">
-        <v>0</v>
-      </c>
-      <c r="N3" s="13">
-        <v>0</v>
-      </c>
-      <c r="P3" s="13">
+      <c r="I3" s="8">
+        <v>0</v>
+      </c>
+      <c r="J3" s="8">
+        <v>0</v>
+      </c>
+      <c r="K3" s="8">
+        <v>887.72</v>
+      </c>
+      <c r="L3" s="8">
+        <v>0</v>
+      </c>
+      <c r="M3" s="8">
+        <v>0</v>
+      </c>
+      <c r="N3" s="8">
+        <v>0</v>
+      </c>
+      <c r="P3" s="8">
         <v>887.72</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A4" s="13">
+      <c r="A4" s="8">
         <v>2</v>
       </c>
-      <c r="B4" s="13">
+      <c r="B4" s="8">
         <v>28</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="10">
         <v>42064</v>
       </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13">
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8">
         <v>795.67</v>
       </c>
-      <c r="G4" s="14">
+      <c r="G4" s="9">
         <v>8418.5300000000007</v>
       </c>
-      <c r="H4" s="13">
+      <c r="H4" s="8">
         <v>92.05</v>
       </c>
-      <c r="I4" s="13">
-        <v>0</v>
-      </c>
-      <c r="J4" s="13">
-        <v>0</v>
-      </c>
-      <c r="K4" s="13">
-        <v>887.72</v>
-      </c>
-      <c r="L4" s="13">
-        <v>0</v>
-      </c>
-      <c r="M4" s="13">
-        <v>0</v>
-      </c>
-      <c r="N4" s="13">
-        <v>0</v>
-      </c>
-      <c r="P4" s="13">
+      <c r="I4" s="8">
+        <v>0</v>
+      </c>
+      <c r="J4" s="8">
+        <v>0</v>
+      </c>
+      <c r="K4" s="8">
+        <v>887.72</v>
+      </c>
+      <c r="L4" s="8">
+        <v>0</v>
+      </c>
+      <c r="M4" s="8">
+        <v>0</v>
+      </c>
+      <c r="N4" s="8">
+        <v>0</v>
+      </c>
+      <c r="P4" s="8">
         <v>887.72</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A5" s="13">
+      <c r="A5" s="8">
         <v>3</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B5" s="8">
         <v>31</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="10">
         <v>42095</v>
       </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13">
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8">
         <v>785.8</v>
       </c>
-      <c r="G5" s="14">
+      <c r="G5" s="9">
         <v>7632.73</v>
       </c>
-      <c r="H5" s="13">
+      <c r="H5" s="8">
         <v>101.92</v>
       </c>
-      <c r="I5" s="13">
-        <v>0</v>
-      </c>
-      <c r="J5" s="13">
-        <v>0</v>
-      </c>
-      <c r="K5" s="13">
-        <v>887.72</v>
-      </c>
-      <c r="L5" s="13">
-        <v>0</v>
-      </c>
-      <c r="M5" s="13">
-        <v>0</v>
-      </c>
-      <c r="N5" s="13">
-        <v>0</v>
-      </c>
-      <c r="P5" s="13">
+      <c r="I5" s="8">
+        <v>0</v>
+      </c>
+      <c r="J5" s="8">
+        <v>0</v>
+      </c>
+      <c r="K5" s="8">
+        <v>887.72</v>
+      </c>
+      <c r="L5" s="8">
+        <v>0</v>
+      </c>
+      <c r="M5" s="8">
+        <v>0</v>
+      </c>
+      <c r="N5" s="8">
+        <v>0</v>
+      </c>
+      <c r="P5" s="8">
         <v>887.72</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A6" s="13">
+      <c r="A6" s="8">
         <v>4</v>
       </c>
-      <c r="B6" s="13">
+      <c r="B6" s="8">
         <v>30</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="10">
         <v>42125</v>
       </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13">
-        <v>812.44</v>
-      </c>
-      <c r="G6" s="14">
-        <v>6820.29</v>
-      </c>
-      <c r="H6" s="13">
-        <v>75.28</v>
-      </c>
-      <c r="I6" s="13">
-        <v>0</v>
-      </c>
-      <c r="J6" s="13">
-        <v>0</v>
-      </c>
-      <c r="K6" s="13">
-        <v>887.72</v>
-      </c>
-      <c r="L6" s="13">
-        <v>0</v>
-      </c>
-      <c r="M6" s="13">
-        <v>0</v>
-      </c>
-      <c r="N6" s="13">
-        <v>0</v>
-      </c>
-      <c r="P6" s="13">
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8">
+        <v>811.66</v>
+      </c>
+      <c r="G6" s="9">
+        <v>6821.07</v>
+      </c>
+      <c r="H6" s="8">
+        <v>76.06</v>
+      </c>
+      <c r="I6" s="8">
+        <v>0</v>
+      </c>
+      <c r="J6" s="8">
+        <v>0</v>
+      </c>
+      <c r="K6" s="8">
+        <v>887.72</v>
+      </c>
+      <c r="L6" s="8">
+        <v>0</v>
+      </c>
+      <c r="M6" s="8">
+        <v>0</v>
+      </c>
+      <c r="N6" s="8">
+        <v>0</v>
+      </c>
+      <c r="P6" s="8">
         <v>887.72</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A7" s="13">
+      <c r="A7" s="8">
         <v>5</v>
       </c>
-      <c r="B7" s="13">
+      <c r="B7" s="8">
         <v>31</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="10">
         <v>42156</v>
       </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13">
-        <v>818.21</v>
-      </c>
-      <c r="G7" s="14">
-        <v>6002.08</v>
-      </c>
-      <c r="H7" s="13">
-        <v>69.510000000000005</v>
-      </c>
-      <c r="I7" s="13">
-        <v>0</v>
-      </c>
-      <c r="J7" s="13">
-        <v>0</v>
-      </c>
-      <c r="K7" s="13">
-        <v>887.72</v>
-      </c>
-      <c r="L7" s="13">
-        <v>0</v>
-      </c>
-      <c r="M7" s="13">
-        <v>0</v>
-      </c>
-      <c r="N7" s="13">
-        <v>0</v>
-      </c>
-      <c r="P7" s="13">
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8">
+        <v>818.2</v>
+      </c>
+      <c r="G7" s="9">
+        <v>6002.87</v>
+      </c>
+      <c r="H7" s="8">
+        <v>69.52</v>
+      </c>
+      <c r="I7" s="8">
+        <v>0</v>
+      </c>
+      <c r="J7" s="8">
+        <v>0</v>
+      </c>
+      <c r="K7" s="8">
+        <v>887.72</v>
+      </c>
+      <c r="L7" s="8">
+        <v>0</v>
+      </c>
+      <c r="M7" s="8">
+        <v>0</v>
+      </c>
+      <c r="N7" s="8">
+        <v>0</v>
+      </c>
+      <c r="P7" s="8">
         <v>887.72</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A8" s="13">
+      <c r="A8" s="8">
         <v>6</v>
       </c>
-      <c r="B8" s="13">
+      <c r="B8" s="8">
         <v>30</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="10">
         <v>42186</v>
       </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13">
-        <v>828.52</v>
-      </c>
-      <c r="G8" s="14">
-        <v>5173.5600000000004</v>
-      </c>
-      <c r="H8" s="13">
-        <v>59.2</v>
-      </c>
-      <c r="I8" s="13">
-        <v>0</v>
-      </c>
-      <c r="J8" s="13">
-        <v>0</v>
-      </c>
-      <c r="K8" s="13">
-        <v>887.72</v>
-      </c>
-      <c r="L8" s="13">
-        <v>0</v>
-      </c>
-      <c r="M8" s="13">
-        <v>0</v>
-      </c>
-      <c r="N8" s="13">
-        <v>0</v>
-      </c>
-      <c r="P8" s="13">
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8">
+        <v>828.51</v>
+      </c>
+      <c r="G8" s="9">
+        <v>5174.3599999999997</v>
+      </c>
+      <c r="H8" s="8">
+        <v>59.21</v>
+      </c>
+      <c r="I8" s="8">
+        <v>0</v>
+      </c>
+      <c r="J8" s="8">
+        <v>0</v>
+      </c>
+      <c r="K8" s="8">
+        <v>887.72</v>
+      </c>
+      <c r="L8" s="8">
+        <v>0</v>
+      </c>
+      <c r="M8" s="8">
+        <v>0</v>
+      </c>
+      <c r="N8" s="8">
+        <v>0</v>
+      </c>
+      <c r="P8" s="8">
         <v>887.72</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A9" s="13">
+      <c r="A9" s="8">
         <v>7</v>
       </c>
-      <c r="B9" s="13">
+      <c r="B9" s="8">
         <v>31</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C9" s="10">
         <v>42217</v>
       </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13">
-        <v>834.99</v>
-      </c>
-      <c r="G9" s="14">
-        <v>4338.57</v>
-      </c>
-      <c r="H9" s="13">
-        <v>52.73</v>
-      </c>
-      <c r="I9" s="13">
-        <v>0</v>
-      </c>
-      <c r="J9" s="13">
-        <v>0</v>
-      </c>
-      <c r="K9" s="13">
-        <v>887.72</v>
-      </c>
-      <c r="L9" s="13">
-        <v>0</v>
-      </c>
-      <c r="M9" s="13">
-        <v>0</v>
-      </c>
-      <c r="N9" s="13">
-        <v>0</v>
-      </c>
-      <c r="P9" s="13">
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8">
+        <v>834.98</v>
+      </c>
+      <c r="G9" s="9">
+        <v>4339.38</v>
+      </c>
+      <c r="H9" s="8">
+        <v>52.74</v>
+      </c>
+      <c r="I9" s="8">
+        <v>0</v>
+      </c>
+      <c r="J9" s="8">
+        <v>0</v>
+      </c>
+      <c r="K9" s="8">
+        <v>887.72</v>
+      </c>
+      <c r="L9" s="8">
+        <v>0</v>
+      </c>
+      <c r="M9" s="8">
+        <v>0</v>
+      </c>
+      <c r="N9" s="8">
+        <v>0</v>
+      </c>
+      <c r="P9" s="8">
         <v>887.72</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A10" s="13">
+      <c r="A10" s="8">
         <v>8</v>
       </c>
-      <c r="B10" s="13">
+      <c r="B10" s="8">
         <v>31</v>
       </c>
-      <c r="C10" s="15">
+      <c r="C10" s="10">
         <v>42248</v>
       </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13">
-        <v>843.5</v>
-      </c>
-      <c r="G10" s="14">
-        <v>3495.07</v>
-      </c>
-      <c r="H10" s="13">
-        <v>44.22</v>
-      </c>
-      <c r="I10" s="13">
-        <v>0</v>
-      </c>
-      <c r="J10" s="13">
-        <v>0</v>
-      </c>
-      <c r="K10" s="13">
-        <v>887.72</v>
-      </c>
-      <c r="L10" s="13">
-        <v>0</v>
-      </c>
-      <c r="M10" s="13">
-        <v>0</v>
-      </c>
-      <c r="N10" s="13">
-        <v>0</v>
-      </c>
-      <c r="P10" s="13">
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8">
+        <v>843.49</v>
+      </c>
+      <c r="G10" s="9">
+        <v>3495.89</v>
+      </c>
+      <c r="H10" s="8">
+        <v>44.23</v>
+      </c>
+      <c r="I10" s="8">
+        <v>0</v>
+      </c>
+      <c r="J10" s="8">
+        <v>0</v>
+      </c>
+      <c r="K10" s="8">
+        <v>887.72</v>
+      </c>
+      <c r="L10" s="8">
+        <v>0</v>
+      </c>
+      <c r="M10" s="8">
+        <v>0</v>
+      </c>
+      <c r="N10" s="8">
+        <v>0</v>
+      </c>
+      <c r="P10" s="8">
         <v>887.72</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A11" s="13">
+      <c r="A11" s="8">
         <v>9</v>
       </c>
-      <c r="B11" s="13">
+      <c r="B11" s="8">
         <v>30</v>
       </c>
-      <c r="C11" s="15">
+      <c r="C11" s="10">
         <v>42278</v>
       </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13">
-        <v>853.25</v>
-      </c>
-      <c r="G11" s="14">
-        <v>2641.82</v>
-      </c>
-      <c r="H11" s="13">
-        <v>34.47</v>
-      </c>
-      <c r="I11" s="13">
-        <v>0</v>
-      </c>
-      <c r="J11" s="13">
-        <v>0</v>
-      </c>
-      <c r="K11" s="13">
-        <v>887.72</v>
-      </c>
-      <c r="L11" s="13">
-        <v>0</v>
-      </c>
-      <c r="M11" s="13">
-        <v>0</v>
-      </c>
-      <c r="N11" s="13">
-        <v>0</v>
-      </c>
-      <c r="P11" s="13">
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8">
+        <v>853.24</v>
+      </c>
+      <c r="G11" s="9">
+        <v>2642.65</v>
+      </c>
+      <c r="H11" s="8">
+        <v>34.479999999999997</v>
+      </c>
+      <c r="I11" s="8">
+        <v>0</v>
+      </c>
+      <c r="J11" s="8">
+        <v>0</v>
+      </c>
+      <c r="K11" s="8">
+        <v>887.72</v>
+      </c>
+      <c r="L11" s="8">
+        <v>0</v>
+      </c>
+      <c r="M11" s="8">
+        <v>0</v>
+      </c>
+      <c r="N11" s="8">
+        <v>0</v>
+      </c>
+      <c r="P11" s="8">
         <v>887.72</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A12" s="13">
+      <c r="A12" s="8">
         <v>10</v>
       </c>
-      <c r="B12" s="13">
+      <c r="B12" s="8">
         <v>31</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C12" s="10">
         <v>42309</v>
       </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13">
-        <v>860.8</v>
-      </c>
-      <c r="G12" s="14">
-        <v>1781.02</v>
-      </c>
-      <c r="H12" s="13">
-        <v>26.92</v>
-      </c>
-      <c r="I12" s="13">
-        <v>0</v>
-      </c>
-      <c r="J12" s="13">
-        <v>0</v>
-      </c>
-      <c r="K12" s="13">
-        <v>887.72</v>
-      </c>
-      <c r="L12" s="13">
-        <v>0</v>
-      </c>
-      <c r="M12" s="13">
-        <v>0</v>
-      </c>
-      <c r="N12" s="13">
-        <v>0</v>
-      </c>
-      <c r="P12" s="13">
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8">
+        <v>860.79</v>
+      </c>
+      <c r="G12" s="9">
+        <v>1781.86</v>
+      </c>
+      <c r="H12" s="8">
+        <v>26.93</v>
+      </c>
+      <c r="I12" s="8">
+        <v>0</v>
+      </c>
+      <c r="J12" s="8">
+        <v>0</v>
+      </c>
+      <c r="K12" s="8">
+        <v>887.72</v>
+      </c>
+      <c r="L12" s="8">
+        <v>0</v>
+      </c>
+      <c r="M12" s="8">
+        <v>0</v>
+      </c>
+      <c r="N12" s="8">
+        <v>0</v>
+      </c>
+      <c r="P12" s="8">
         <v>887.72</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A13" s="13">
+      <c r="A13" s="8">
         <v>11</v>
       </c>
-      <c r="B13" s="13">
+      <c r="B13" s="8">
         <v>30</v>
       </c>
-      <c r="C13" s="15">
+      <c r="C13" s="10">
         <v>42339</v>
       </c>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13">
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8">
         <v>870.15</v>
       </c>
-      <c r="G13" s="13">
-        <v>910.87</v>
-      </c>
-      <c r="H13" s="13">
+      <c r="G13" s="8">
+        <v>911.71</v>
+      </c>
+      <c r="H13" s="8">
         <v>17.57</v>
       </c>
-      <c r="I13" s="13">
-        <v>0</v>
-      </c>
-      <c r="J13" s="13">
-        <v>0</v>
-      </c>
-      <c r="K13" s="13">
-        <v>887.72</v>
-      </c>
-      <c r="L13" s="13">
-        <v>0</v>
-      </c>
-      <c r="M13" s="13">
-        <v>0</v>
-      </c>
-      <c r="N13" s="13">
-        <v>0</v>
-      </c>
-      <c r="P13" s="13">
+      <c r="I13" s="8">
+        <v>0</v>
+      </c>
+      <c r="J13" s="8">
+        <v>0</v>
+      </c>
+      <c r="K13" s="8">
+        <v>887.72</v>
+      </c>
+      <c r="L13" s="8">
+        <v>0</v>
+      </c>
+      <c r="M13" s="8">
+        <v>0</v>
+      </c>
+      <c r="N13" s="8">
+        <v>0</v>
+      </c>
+      <c r="P13" s="8">
         <v>887.72</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A14" s="13">
+      <c r="A14" s="8">
         <v>12</v>
       </c>
-      <c r="B14" s="13">
+      <c r="B14" s="8">
         <v>31</v>
       </c>
-      <c r="C14" s="15">
+      <c r="C14" s="10">
         <v>42370</v>
       </c>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13">
-        <v>910.87</v>
-      </c>
-      <c r="G14" s="13">
-        <v>0</v>
-      </c>
-      <c r="H14" s="13">
-        <v>9.2799999999999994</v>
-      </c>
-      <c r="I14" s="13">
-        <v>0</v>
-      </c>
-      <c r="J14" s="13">
-        <v>0</v>
-      </c>
-      <c r="K14" s="13">
-        <v>920.15</v>
-      </c>
-      <c r="L14" s="13">
-        <v>0</v>
-      </c>
-      <c r="M14" s="13">
-        <v>0</v>
-      </c>
-      <c r="N14" s="13">
-        <v>0</v>
-      </c>
-      <c r="P14" s="13">
-        <v>920.15</v>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8">
+        <v>911.71</v>
+      </c>
+      <c r="G14" s="8">
+        <v>0</v>
+      </c>
+      <c r="H14" s="8">
+        <v>9.2899999999999991</v>
+      </c>
+      <c r="I14" s="8">
+        <v>0</v>
+      </c>
+      <c r="J14" s="8">
+        <v>0</v>
+      </c>
+      <c r="K14" s="8">
+        <v>921</v>
+      </c>
+      <c r="L14" s="8">
+        <v>0</v>
+      </c>
+      <c r="M14" s="8">
+        <v>0</v>
+      </c>
+      <c r="N14" s="8">
+        <v>0</v>
+      </c>
+      <c r="P14" s="8">
+        <v>921</v>
       </c>
     </row>
   </sheetData>
@@ -1893,7 +1857,7 @@
       <c r="A17" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B17" s="6">
         <v>12</v>
       </c>
     </row>

--- a/Mifos Automation Excels/Client/966-MS-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-LateRepayment-Newcreateloan.xlsx
+++ b/Mifos Automation Excels/Client/966-MS-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-LateRepayment-Newcreateloan.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17766"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mifosx-e2e-testing\Mifos Automation Excels\Client\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" activeTab="2"/>
   </bookViews>
@@ -172,7 +177,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -266,6 +271,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -287,7 +295,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4097" name="Picture 1" descr="https://secure.adnxs.com/seg?add=2735784&amp;t=2?"/>
+        <xdr:cNvPr id="4097" name="Picture 1" descr="https://secure.adnxs.com/seg?add=2735784&amp;t=2?">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000001100000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -327,7 +341,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4098" name="Picture 2" descr="https://secure.adnxs.com/seg?add=2735784&amp;t=2?"/>
+        <xdr:cNvPr id="4098" name="Picture 2" descr="https://secure.adnxs.com/seg?add=2735784&amp;t=2?">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002100000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -367,7 +387,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4099" name="Picture 3" descr="https://secure.adnxs.com/seg?add=2735784&amp;t=2?"/>
+        <xdr:cNvPr id="4099" name="Picture 3" descr="https://secure.adnxs.com/seg?add=2735784&amp;t=2?">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003100000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -407,7 +433,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4100" name="Picture 4" descr="http://fp114.digitaloptout.com/acttr?p=YTIxNDQ4Nzg1NjZ9BohYE9sYS8No21fUjjen5BSqNleXWBKW6lASeRB%2BS%2FAIRM6QUsXgoMbirFvVAgJZpPMWKHrHtcvusGfRBaxlOKBiPo0l2IMnDdvDVl6Uk6kStHnC1CWwoQ7IyBRQCkfbTu6ome%2FdZSpgeB7lFOKF4ymMyhsOgZJBxsSC45Ph2A%3D%3D&amp;m=FP14_%3A_already-injected_%3A_FP39_%3A_FP14&amp;t=1429973261769"/>
+        <xdr:cNvPr id="4100" name="Picture 4" descr="http://fp114.digitaloptout.com/acttr?p=YTIxNDQ4Nzg1NjZ9BohYE9sYS8No21fUjjen5BSqNleXWBKW6lASeRB%2BS%2FAIRM6QUsXgoMbirFvVAgJZpPMWKHrHtcvusGfRBaxlOKBiPo0l2IMnDdvDVl6Uk6kStHnC1CWwoQ7IyBRQCkfbTu6ome%2FdZSpgeB7lFOKF4ymMyhsOgZJBxsSC45Ph2A%3D%3D&amp;m=FP14_%3A_already-injected_%3A_FP39_%3A_FP14&amp;t=1429973261769">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004100000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -447,7 +479,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4101" name="Picture 5" descr="http://fp114.digitaloptout.com/acttr?p=YTIxNDQ4Nzg1NjZ9BohYE9sYS8No21fUjjen5BSqNleXWBKW6lASeRB%2BS%2FAIRM6QUsXgoMbirFvVAgJZpPMWKHrHtcvusGfRBaxlOKBiPo0l2IMnDdvDVl6Uk6kStHnC1CWwoQ7IyBRQCkfbTu6ome%2FdZSpgeB7lFOKF4ymMyhsOgZJBxsSC45Ph2A%3D%3D&amp;m=FP14_%3A_already-injected_%3A_FP39_%3A_FP14&amp;t=1429973261942"/>
+        <xdr:cNvPr id="4101" name="Picture 5" descr="http://fp114.digitaloptout.com/acttr?p=YTIxNDQ4Nzg1NjZ9BohYE9sYS8No21fUjjen5BSqNleXWBKW6lASeRB%2BS%2FAIRM6QUsXgoMbirFvVAgJZpPMWKHrHtcvusGfRBaxlOKBiPo0l2IMnDdvDVl6Uk6kStHnC1CWwoQ7IyBRQCkfbTu6ome%2FdZSpgeB7lFOKF4ymMyhsOgZJBxsSC45Ph2A%3D%3D&amp;m=FP14_%3A_already-injected_%3A_FP39_%3A_FP14&amp;t=1429973261942">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005100000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -487,7 +525,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4102" name="Picture 6" descr="http://fp114.digitaloptout.com/acttr?p=YTIxNDQ4Nzg1NjZ9BohYE9sYS8No21fUjjen5BSqNleXWBKW6lASeRB%2BS%2FAIRM6QUsXgoMbirFvVAgJZpPMWKHrHtcvusGfRBaxlOKBiPo0l2IMnDdvDVl6Uk6kStHnC1CWwoQ7IyBRQCkfbTu6ome%2FdZSpgeB7lFOKF4ymMyhsOgZJBxsSC45Ph2A%3D%3D&amp;m=FP14_%3A_already-injected_%3A_FP39_%3A_FP14&amp;t=1429973261946"/>
+        <xdr:cNvPr id="4102" name="Picture 6" descr="http://fp114.digitaloptout.com/acttr?p=YTIxNDQ4Nzg1NjZ9BohYE9sYS8No21fUjjen5BSqNleXWBKW6lASeRB%2BS%2FAIRM6QUsXgoMbirFvVAgJZpPMWKHrHtcvusGfRBaxlOKBiPo0l2IMnDdvDVl6Uk6kStHnC1CWwoQ7IyBRQCkfbTu6ome%2FdZSpgeB7lFOKF4ymMyhsOgZJBxsSC45Ph2A%3D%3D&amp;m=FP14_%3A_already-injected_%3A_FP39_%3A_FP14&amp;t=1429973261946">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006100000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -527,7 +571,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4103" name="fixStatusImg" descr="http://partners.cmptch.com/images/1x1.gif"/>
+        <xdr:cNvPr id="4103" name="fixStatusImg" descr="http://partners.cmptch.com/images/1x1.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007100000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -598,7 +648,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -631,9 +681,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -666,6 +733,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1101,19 +1185,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P14"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>30</v>
       </c>
@@ -1151,15 +1235,16 @@
       <c r="M1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="1"/>
+      <c r="O1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B2" s="9"/>
       <c r="C2" s="11">
         <v>42005</v>
@@ -1181,8 +1266,9 @@
         <v>0</v>
       </c>
       <c r="M2" s="9"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N2" s="9"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="9">
         <v>1</v>
       </c>
@@ -1218,14 +1304,15 @@
       <c r="M3" s="9">
         <v>0</v>
       </c>
-      <c r="N3" s="9">
-        <v>0</v>
-      </c>
-      <c r="P3" s="9">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N3" s="9"/>
+      <c r="O3" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="9">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="9">
         <v>2</v>
       </c>
@@ -1261,14 +1348,15 @@
       <c r="M4" s="9">
         <v>0</v>
       </c>
-      <c r="N4" s="9">
-        <v>0</v>
-      </c>
-      <c r="P4" s="9">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N4" s="9"/>
+      <c r="O4" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="9">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="9">
         <v>3</v>
       </c>
@@ -1304,14 +1392,15 @@
       <c r="M5" s="9">
         <v>0</v>
       </c>
-      <c r="N5" s="9">
-        <v>0</v>
-      </c>
-      <c r="P5" s="9">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N5" s="9"/>
+      <c r="O5" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="9">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="9">
         <v>4</v>
       </c>
@@ -1347,14 +1436,15 @@
       <c r="M6" s="9">
         <v>0</v>
       </c>
-      <c r="N6" s="9">
-        <v>0</v>
-      </c>
-      <c r="P6" s="9">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N6" s="9"/>
+      <c r="O6" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="9">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="9">
         <v>5</v>
       </c>
@@ -1390,14 +1480,15 @@
       <c r="M7" s="9">
         <v>0</v>
       </c>
-      <c r="N7" s="9">
-        <v>0</v>
-      </c>
-      <c r="P7" s="9">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N7" s="9"/>
+      <c r="O7" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="9">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="9">
         <v>6</v>
       </c>
@@ -1433,14 +1524,15 @@
       <c r="M8" s="9">
         <v>0</v>
       </c>
-      <c r="N8" s="9">
-        <v>0</v>
-      </c>
-      <c r="P8" s="9">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N8" s="9"/>
+      <c r="O8" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="9">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="9">
         <v>7</v>
       </c>
@@ -1476,14 +1568,15 @@
       <c r="M9" s="9">
         <v>0</v>
       </c>
-      <c r="N9" s="9">
-        <v>0</v>
-      </c>
-      <c r="P9" s="9">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N9" s="9"/>
+      <c r="O9" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="9">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="9">
         <v>8</v>
       </c>
@@ -1519,14 +1612,15 @@
       <c r="M10" s="9">
         <v>0</v>
       </c>
-      <c r="N10" s="9">
-        <v>0</v>
-      </c>
-      <c r="P10" s="9">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N10" s="9"/>
+      <c r="O10" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="9">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="9">
         <v>9</v>
       </c>
@@ -1562,14 +1656,15 @@
       <c r="M11" s="9">
         <v>0</v>
       </c>
-      <c r="N11" s="9">
-        <v>0</v>
-      </c>
-      <c r="P11" s="9">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N11" s="9"/>
+      <c r="O11" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="9">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="9">
         <v>10</v>
       </c>
@@ -1605,14 +1700,15 @@
       <c r="M12" s="9">
         <v>0</v>
       </c>
-      <c r="N12" s="9">
-        <v>0</v>
-      </c>
-      <c r="P12" s="9">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N12" s="9"/>
+      <c r="O12" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="9">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="9">
         <v>11</v>
       </c>
@@ -1648,14 +1744,15 @@
       <c r="M13" s="9">
         <v>0</v>
       </c>
-      <c r="N13" s="9">
-        <v>0</v>
-      </c>
-      <c r="P13" s="9">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N13" s="9"/>
+      <c r="O13" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="9">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="9">
         <v>12</v>
       </c>
@@ -1691,10 +1788,11 @@
       <c r="M14" s="9">
         <v>0</v>
       </c>
-      <c r="N14" s="9">
-        <v>0</v>
-      </c>
-      <c r="P14" s="9">
+      <c r="N14" s="9"/>
+      <c r="O14" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="9">
         <v>920.15</v>
       </c>
     </row>

--- a/Mifos Automation Excels/Client/966-MS-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-LateRepayment-Newcreateloan.xlsx
+++ b/Mifos Automation Excels/Client/966-MS-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-LateRepayment-Newcreateloan.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17766"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mifosx-e2e-testing\Mifos Automation Excels\Client\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" activeTab="2"/>
+    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="NewLoanInput" sheetId="9" r:id="rId1"/>
@@ -177,7 +172,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -298,7 +293,7 @@
         <xdr:cNvPr id="4097" name="Picture 1" descr="https://secure.adnxs.com/seg?add=2735784&amp;t=2?">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000001100000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000001100000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -344,7 +339,7 @@
         <xdr:cNvPr id="4098" name="Picture 2" descr="https://secure.adnxs.com/seg?add=2735784&amp;t=2?">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002100000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002100000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -390,7 +385,7 @@
         <xdr:cNvPr id="4099" name="Picture 3" descr="https://secure.adnxs.com/seg?add=2735784&amp;t=2?">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003100000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003100000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -436,7 +431,7 @@
         <xdr:cNvPr id="4100" name="Picture 4" descr="http://fp114.digitaloptout.com/acttr?p=YTIxNDQ4Nzg1NjZ9BohYE9sYS8No21fUjjen5BSqNleXWBKW6lASeRB%2BS%2FAIRM6QUsXgoMbirFvVAgJZpPMWKHrHtcvusGfRBaxlOKBiPo0l2IMnDdvDVl6Uk6kStHnC1CWwoQ7IyBRQCkfbTu6ome%2FdZSpgeB7lFOKF4ymMyhsOgZJBxsSC45Ph2A%3D%3D&amp;m=FP14_%3A_already-injected_%3A_FP39_%3A_FP14&amp;t=1429973261769">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004100000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000004100000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -482,7 +477,7 @@
         <xdr:cNvPr id="4101" name="Picture 5" descr="http://fp114.digitaloptout.com/acttr?p=YTIxNDQ4Nzg1NjZ9BohYE9sYS8No21fUjjen5BSqNleXWBKW6lASeRB%2BS%2FAIRM6QUsXgoMbirFvVAgJZpPMWKHrHtcvusGfRBaxlOKBiPo0l2IMnDdvDVl6Uk6kStHnC1CWwoQ7IyBRQCkfbTu6ome%2FdZSpgeB7lFOKF4ymMyhsOgZJBxsSC45Ph2A%3D%3D&amp;m=FP14_%3A_already-injected_%3A_FP39_%3A_FP14&amp;t=1429973261942">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005100000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000005100000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -528,7 +523,7 @@
         <xdr:cNvPr id="4102" name="Picture 6" descr="http://fp114.digitaloptout.com/acttr?p=YTIxNDQ4Nzg1NjZ9BohYE9sYS8No21fUjjen5BSqNleXWBKW6lASeRB%2BS%2FAIRM6QUsXgoMbirFvVAgJZpPMWKHrHtcvusGfRBaxlOKBiPo0l2IMnDdvDVl6Uk6kStHnC1CWwoQ7IyBRQCkfbTu6ome%2FdZSpgeB7lFOKF4ymMyhsOgZJBxsSC45Ph2A%3D%3D&amp;m=FP14_%3A_already-injected_%3A_FP39_%3A_FP14&amp;t=1429973261946">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006100000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000006100000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -574,7 +569,7 @@
         <xdr:cNvPr id="4103" name="fixStatusImg" descr="http://partners.cmptch.com/images/1x1.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007100000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000007100000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -648,7 +643,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -681,26 +676,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -733,23 +711,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1068,7 +1029,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
@@ -1187,7 +1148,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
